--- a/biology/Zoologie/Euscorpius_deltshevi/Euscorpius_deltshevi.xlsx
+++ b/biology/Zoologie/Euscorpius_deltshevi/Euscorpius_deltshevi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euscorpius deltshevi est une espèce de scorpions de la famille des Euscorpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le Grand Balkan en Bulgarie dans les oblasts de Sofia, de Pernik, de Vidin, de Montana, de Vratsa, de Pleven, de Lovetch, de Veliko Tarnovo, de Roussé, de Targovichté, de Choumen, de Sliven et de Yambol et en Serbie vers Nišava[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le Grand Balkan en Bulgarie dans les oblasts de Sofia, de Pernik, de Vidin, de Montana, de Vratsa, de Pleven, de Lovetch, de Veliko Tarnovo, de Roussé, de Targovichté, de Choumen, de Sliven et de Yambol et en Serbie vers Nišava.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 33,00 mm et la femelle paratype 35,40 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 33,00 mm et la femelle paratype 35,40 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Christo Deltshev[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Christo Deltshev.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fet, Graham, Webber &amp; Blagoev, 2014 : Two new species of Euscorpius (Scorpiones: Euscorpiidae) from Bulgaria, Serbia, and Greece. Zootaxa, no 3894, p. 83-105.</t>
         </is>
